--- a/python_wrapper/optimization_runs/Oct11_2021/run1.xlsx
+++ b/python_wrapper/optimization_runs/Oct11_2021/run1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plachap1\Thermal_Laser_Compression_Model\python_wrapper\optimization_runs\Oct11_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BB0026B-6C4D-4363-9016-B5931043972D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20111353-D659-4936-BD86-F527BA29F8C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="12180" xr2:uid="{7FD1490A-5B1A-4583-8493-2D214D4FD63B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>iteration</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>start_time</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -96,6 +99,5976 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>12105738563.8694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14744492981.7096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12105738563.8694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12105738563.8694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5502031270.9139099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7513041465.8614302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6414560523.7238197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5475835034.0402203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6911523154.5635595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6911523154.5635595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6031390531.7919998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7663483914.2131395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5577875309.4093199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6962976827.0090103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5464150274.48699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7527396315.86306</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5226737263.8687401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5907237566.7708597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5280670469.8930502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6016776625.0129995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5248111424.1111298</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4919538057.28368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4710850812.1149998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5179891965.8755503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4671696765.1579704</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4500961350.34939</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5853571866.6928596</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4897586203.2392502</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4386931860.7340899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4186192116.2698598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4473179552.9060001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4117401213.1545601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4275256130.2715802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4156735594.8721499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4660784592.0697403</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4231776045.8442101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4360999839.0486498</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4160658015.42068</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4167836953.9337101</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4344128118.7151899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4123482850.02774</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4185756222.0739999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4119785428.1392899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4202421626.2813201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4114278230.1630502</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4176654911.6981702</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4118374964.0387702</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4137727894.6944098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4112129913.4043999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4131241975.90523</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4110132973.18502</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4131819431.8949499</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4109911677.77949</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4116171313.6432099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4110107201.0268602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4124131409.0082898</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4108990639.8343601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4119825901.5802798</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4108830543.9774699</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4108745872.7225699</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4110786543.9848499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4111380810.83076</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4108721669.5471401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4110079335.9345598</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4108670032.9595399</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4110902811.6733699</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4108432917.7364502</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4108686000.4175301</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4109711267.5935602</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4108358843.2308102</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4108417936.4281902</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4109092120.3726602</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4108111643.44277</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4109255085.7165198</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4108385412.1083598</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4108438606.39396</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4108327274.6303401</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4108219843.7648902</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4108121914.4066401</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4108445638.2272201</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4108385708.6661901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4108561303.4221301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4108438582.9277701</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4108275867.4053898</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4108245208.1789198</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4108070727.5156102</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4108228811.0948601</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4108343787.2716999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4108395979.6329899</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4108315366.0564699</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4108384516.7810202</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4108064180.9964099</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4108325045.1192598</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4108409185.78372</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4108209928.1173</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4108303434.7525702</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4108386090.7416501</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4108240555.82374</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4108300997.68576</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4108553501.6585202</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4108343467.47119</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4108386218.9679098</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4108065048.3404298</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4108245367.6380901</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4108338865.43714</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4108067498.3051801</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4108441518.2356901</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4108439411.2218099</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4108446423.5002599</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4108063722.3343801</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4108302559.92098</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4108383419.5634398</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4108062909.78757</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4108441521.6721101</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4108441521.6721101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCCE-4CED-80C1-EBC3A53CF23D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="178469647"/>
+        <c:axId val="178663807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="178469647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178663807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178663807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178469647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>peak_temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34650</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35662.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36731.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34664.0625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35388.28125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35172.0703125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34580.56640625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35392.0166015625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35942.980957031199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34983.792114257798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34098.939514160098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35524.734878540003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35886.306953430103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36504.460430145198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36030.4316997528</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36742.029690742398</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37621.148478984796</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37249.293726682597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35955.8745905756</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37663.9409981668</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38799.903196468898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38410.261648334497</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39712.012286391102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41590.081134298802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40767.202374944398</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41223.541274084702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38521.746677759802</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40490.170619447599</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39970.193376669296</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41102.9089394771</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41976.255292271999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39593.991220419703</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38918.790689735099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40556.879377041601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40344.849252729102</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40063.857345684199</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39196.167739823897</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40374.4437161643</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40759.605142220898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39885.394700869998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39460.974647513198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40282.903194659499</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39597.640047638102</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>40180.242799032698</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40494.186733732196</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40298.643121896901</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40259.734562545302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40112.8266498995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40551.913181874297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40052.024321121098</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40038.965251315603</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39916.996279643703</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39893.3863887876</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40197.328938619597</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40020.3297814451</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40140.2645446358</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40101.464877946499</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40109.986206911301</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40191.2481496201</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40280.448668577803</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40099.336105631097</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40073.088564779602</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40020.089561358902</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40148.4585025548</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40075.170145302502</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40123.990944802499</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40112.450851972702</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40110.602368176602</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40168.105395802901</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40139.260241280201</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40183.8771482761</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40120.471366292397</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40143.859371917497</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40158.281949178898</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40129.530435365697</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40123.897304093</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40136.224723678599</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40132.407399559197</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40110.773533667198</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40122.650637545099</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40142.341613116703</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40130.061013885803</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40132.877579522203</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40147.253336428701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40149.2876124873</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40134.867663536199</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40125.9024534981</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40122.594597000803</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40137.404859087699</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40144.784959414297</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40140.064332935202</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>40134.551151600397</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>40133.872621529197</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>40135.141219304896</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40129.3900165101</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40132.107361939699</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>40130.206937037998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>40131.700514247997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40132.005650016697</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40134.009399413597</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40131.542258280097</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40131.133798016097</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>40132.492470730896</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>40130.013653861097</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>40128.015781084898</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>40130.291174108897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D41-43E2-900A-2CA67E60FF97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="74057839"/>
+        <c:axId val="178652991"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74057839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178652991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178652991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74057839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7850000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7425E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.76375E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6681249999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6096874999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7371874999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6920312499999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.674765625E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7215820312499901E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6271191406249899E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7295922851562499E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7176184082031198E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6984280395507801E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.67649063110351E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7103091812133701E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7032272529601999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7008068132400501E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.75144315958023E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7931022393703401E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7217308515310201E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7467247906327199E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7649325953423899E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.78829004965722E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7226776223443398E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8027936147432699E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8549764023395199E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8461135781672699E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9068847852654201E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9989883667259699E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8933514411869599E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9857305081372002E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8201320735410899E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.89155877299923E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8801974742912401E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9475729780004801E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9590269370325299E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8809890360127701E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8331383903777199E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9189643310947899E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9198973224887401E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8901224363406102E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.90512885316984E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.89629579418268E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9251446374289799E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8920279363668299E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.87370114498298E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9076485345668401E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9020460520871699E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8977333586587999E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.88688134770112E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8918822070921899E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9045235820017201E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.89372272275589E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9034654751700401E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8948873210676301E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8814642702204201E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8683721380472099E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8920216292591802E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.89191706263394E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8832623296801299E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.8941156014141401E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8874694049121701E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.89215939329496E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8849408427141001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.90010217980815E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8861237476173499E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8867527298863301E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8946348933922899E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.88736435538365E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.88208451167701E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8911078289798499E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.88351493763863E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8899982793808799E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8905443757945301E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8859075501083501E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8907835327163499E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8872886938920998E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8866359527459999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8889543655890899E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8886813173822601E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8867440515005E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8892360921817501E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8905361618996301E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8870585426349899E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.88753249837352E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8883002237827001E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8879900718411301E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.8889587047820101E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.88909522888542E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8898050529748099E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.88844381712455E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.8883741900500801E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8892061782865E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8885267124086499E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8892084731983901E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8889999024113199E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8890973984818801E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.8887012609532801E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.8887427085953298E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.88866644741605E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.8890313686843501E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8886022162569901E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.88845366984083E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8888869439734699E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.88885070668867E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8887804605194999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.8888125760990301E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.8889950367331799E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.8889226823781899E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.88895867022295E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.88874217515618E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74E7-4A28-941A-6752C0ED8026}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="74038239"/>
+        <c:axId val="178647583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74038239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178647583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178647583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74038239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.8125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.71875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.71875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.453125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.8515625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.501953125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.0087890625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.158447265625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.7833251953125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.0356750488281</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.501358032226499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.501804351806602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.754213333129801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.6885533332824</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.8797399997711</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.413359999656599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.1612491011619</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.6476143896579</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.220519408583598</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.726848445832701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.19812711142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.460952761582998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.173591617960401</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.841549967648401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.1263833855045</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.090511522546802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.267662190191899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.984074172069</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.911408099454999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.3979726789075</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.5088670010927</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.126843997919799</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.341286669394002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.7155153808188</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.6823699808842</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.265725493660899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.178776223995399</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.4263443068184</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.4993220932095</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27.325577165946299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.856499795146199</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.500761484400702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.423807677673999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.305246039664201</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.3537904422476</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.3326304850216</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.6561077724479</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.523676675712</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.404813035580901</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.420961489008999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.290495860302698</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27.448195078376202</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.557485824395201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27.683605716760798</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27.355959762689</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27.4817474474563</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.621564434596799</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27.404863972415399</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.525184672312498</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.447017284834899</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.497362186174701</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27.358009621045401</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.5076167735578</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>27.446682661035101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27.4057281597469</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27.474453679567699</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27.533021227082401</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27.436903286082099</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27.4858109152865</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27.456715692447801</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27.4911620547926</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27.528070814100801</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27.4675843468967</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27.4976086668925</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.501262246834301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.482807867180199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27.465584686007801</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>27.491035226562801</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27.455678482824901</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27.4328866008203</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27.4605681703014</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27.4661280945211</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27.465066081196301</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.4733568546939</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.460631584416401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27.4692431750026</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27.451952807026299</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27.468005842777</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27.4554478206047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27.454815784115102</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27.462503506926002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>27.4679618878674</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.4648333710517</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27.458155033620699</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>27.4643187135967</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27.461567545671201</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>27.458039702510501</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>27.4548782195127</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>27.459403492434799</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27.464942943003699</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>27.4573944003855</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27.461099565043799</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>27.4600175384256</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.459335643463501</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>27.457754901964499</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27.457770269091199</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>27.456105621114901</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>27.4611226157337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6123-43F4-BC39-F57DEB2E7945}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="173175775"/>
+        <c:axId val="178661311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="173175775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178661311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178661311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173175775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>start_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$116</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="115"/>
+                <c:pt idx="0">
+                  <c:v>2E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0999999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0499999999999899E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0750000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1124999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1687500000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1687500000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1781249999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0640624999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.142578125E-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1916015625E-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1041503906250001E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0514892578124899E-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.14646606445312E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.08898010253906E-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.12917861938476E-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1461475372314399E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1115368843078599E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.13316597938537E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.14349896907806E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1611898779869001E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1521672785282098E-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.16366160809993E-8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1958713755011499E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.13262050710618E-8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.15401941668242E-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1577960927970701E-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.13759871055372E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.16865718315821E-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.18667552118422E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1703578282264E-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1535432992677598E-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1611320308918902E-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1913728569830701E-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1779293203757299E-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1762381813868099E-8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1887951637765101E-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1655458605419299E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.16500691476432E-8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1734303647311901E-8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1610662979531299E-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.1737135647700801E-8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1703156583742999E-8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.17034728576338E-8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1775283386695001E-8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1685414800738201E-8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1671993921515501E-8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.1718726215862799E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1710451390308202E-8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.17052174908024E-8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.173667524597E-8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1724149392372999E-8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1679618302187398E-8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.17227563113225E-8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.17500099044421E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1701563576664201E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1708117169718201E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1702812646645902E-8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.16946778818806E-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1716781514749901E-8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.1719391795425E-8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1708761066958E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1694855352722701E-8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1715781071672501E-8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.17231568348852E-8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.17241230744146E-8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.1712118645892299E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1713127294954099E-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1701737204853301E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1717801927377201E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1720653402990002E-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1711734150966001E-8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.17116099379223E-8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1714738288235001E-8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.17150692112812E-8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.1718129885426801E-8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.17207510102677E-8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1714276736986199E-8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.1717965906402001E-8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.1716435569329199E-8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1716270107806099E-8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1714960286634801E-8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.17147680391716E-8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.17131691055564E-8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.17154646111657E-8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1715707350706501E-8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.17162849832744E-8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.1714864162903199E-8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1715519073488899E-8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1715601804250401E-8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1716222787189499E-8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.17152038189748E-8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.1715286153204399E-8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.1714103559145399E-8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1715739627242201E-8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.1715329126234301E-8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.17153183829768E-8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.17151435563302E-8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.1715361446231798E-8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.1715629350365499E-8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.1715402613346601E-8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1715485850533799E-8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1715874887537199E-8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1715727111835302E-8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.17155461658592E-8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.1715574211927201E-8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.1715696980513001E-8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.1715460843417699E-8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.17155024620113E-8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.17155154677883E-8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.1715486095718798E-8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.17155937205926E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCFF-4609-893C-0E788B074298}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="175216399"/>
+        <c:axId val="178651327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="175216399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178651327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178651327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175216399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4438F73-F2F3-41DF-8A0F-401A7B8E8529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC988A40-1C04-434B-9336-16AE8AA943EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982A5826-D4B4-4131-992A-FAFA2F7851A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFE0C45-B064-4E87-8C1E-7FFF84D058ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5E509C-76EC-4590-A68E-131448E97C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,10 +6368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1D86A5-C841-455E-A5A7-8D29C2B561AC}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,7 +6398,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>12105738563.8694</v>
@@ -1043,7 +7016,7 @@
         <v>2.13759871055372E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1062,8 +7035,11 @@
       <c r="F33" s="1">
         <v>2.16865718315821E-8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1083,7 +7059,7 @@
         <v>2.18667552118422E-8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1103,7 +7079,7 @@
         <v>2.1703578282264E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1123,7 +7099,7 @@
         <v>2.1535432992677598E-8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1143,7 +7119,7 @@
         <v>2.1611320308918902E-8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1163,7 +7139,7 @@
         <v>2.1913728569830701E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1183,7 +7159,7 @@
         <v>2.1779293203757299E-8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1203,7 +7179,7 @@
         <v>2.1762381813868099E-8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1223,7 +7199,7 @@
         <v>2.1887951637765101E-8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1243,7 +7219,7 @@
         <v>2.1655458605419299E-8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1263,7 +7239,7 @@
         <v>2.16500691476432E-8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1283,7 +7259,7 @@
         <v>2.1734303647311901E-8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1303,7 +7279,7 @@
         <v>2.1610662979531299E-8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1323,7 +7299,7 @@
         <v>2.1737135647700801E-8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1343,7 +7319,7 @@
         <v>2.1703156583742999E-8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2725,5 +8701,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>